--- a/data/raw/SPI_Index_Data.xlsx
+++ b/data/raw/SPI_Index_Data.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\Abnormal-Returns-in-the-Danish-Stock-Market-With-Momentum-Strategies\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5001C55D-CD1F-41BC-AAA6-8495A552EDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417C61C4-D8E0-4F34-970A-A3511799BC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4CEA2AD8-FFDB-4D76-9F03-6099F36EA6C9}"/>
   </bookViews>
   <sheets>
     <sheet name="SPX_Index" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -105,17 +104,11 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="bloomberg.rtd">
-      <tp>
-        <v>36164</v>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>##V3_BDHV12</stp>
-        <stp>SPI Index</stp>
-        <stp>PX_LAST</stp>
-        <stp>01.01.1999</stp>
-        <stp>31.10.2024</stp>
-        <stp>[Mappe1]Tabelle1!R2C1</stp>
-        <stp>cols=2;rows=6500</stp>
+        <stp>BDH|4125030440780681012</stp>
         <tr r="A2" s="1"/>
       </tp>
     </main>
@@ -443,7 +436,7 @@
   <dimension ref="A1:B6501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F7:F8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,9 +450,9 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="str">
         <f>_xll.BDH("SPI Index","PX_LAST","01.01.1999","31.10.2024","cols=2;rows=6500")</f>
-        <v>36164</v>
+        <v>#N/A Requesting Data...</v>
       </c>
       <c r="B2">
         <v>4650.22</v>
@@ -52460,16 +52453,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4E5DFF-4592-49E2-9426-CFC2CFE04033}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>